--- a/spreadsheets/new/GSE130430.0.xlsx
+++ b/spreadsheets/new/GSE130430.0.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/geryl/PycharmProjects/load-project/spreadsheets/new/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E687D7-8C5A-0C44-9871-697EF025BF81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="30280" windowHeight="13740" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cell_suspension" sheetId="1" r:id="rId1"/>
@@ -17,12 +23,12 @@
     <sheet name="Sequencing_protocol" sheetId="8" r:id="rId8"/>
     <sheet name="Specimen_from_organism" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1981" uniqueCount="1021">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1982" uniqueCount="1022">
   <si>
     <t>CELL_SUSPENSION.BIOMATERIAL_CORE.BIOMATERIAL_ID.USER_FRIENDLY (Required)</t>
   </si>
@@ -3085,13 +3091,16 @@
   </si>
   <si>
     <t>Blood</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3128,6 +3137,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -3174,7 +3191,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3206,9 +3223,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3240,6 +3275,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3415,75 +3468,71 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BG14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="73.7109375" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
-    <col min="3" max="3" width="71.7109375" customWidth="1"/>
-    <col min="4" max="4" width="47.7109375" customWidth="1"/>
-    <col min="5" max="5" width="61.7109375" customWidth="1"/>
-    <col min="6" max="6" width="325.7109375" customWidth="1"/>
-    <col min="7" max="7" width="176.7109375" customWidth="1"/>
-    <col min="8" max="8" width="171.7109375" customWidth="1"/>
-    <col min="9" max="9" width="134.7109375" customWidth="1"/>
-    <col min="10" max="10" width="57.7109375" customWidth="1"/>
-    <col min="11" max="11" width="85.7109375" customWidth="1"/>
-    <col min="12" max="12" width="69.7109375" customWidth="1"/>
-    <col min="13" max="13" width="58.7109375" customWidth="1"/>
-    <col min="14" max="14" width="141.7109375" customWidth="1"/>
-    <col min="15" max="15" width="70.7109375" customWidth="1"/>
-    <col min="16" max="16" width="57.7109375" customWidth="1"/>
-    <col min="17" max="17" width="54.7109375" customWidth="1"/>
-    <col min="18" max="18" width="68.7109375" customWidth="1"/>
-    <col min="19" max="19" width="62.7109375" customWidth="1"/>
-    <col min="20" max="20" width="81.7109375" customWidth="1"/>
-    <col min="21" max="21" width="61.7109375" customWidth="1"/>
-    <col min="22" max="22" width="195.7109375" customWidth="1"/>
-    <col min="23" max="23" width="62.7109375" customWidth="1"/>
-    <col min="24" max="24" width="150.7109375" customWidth="1"/>
-    <col min="25" max="25" width="78.7109375" customWidth="1"/>
-    <col min="26" max="26" width="64.7109375" customWidth="1"/>
-    <col min="27" max="27" width="58.7109375" customWidth="1"/>
-    <col min="28" max="28" width="141.7109375" customWidth="1"/>
-    <col min="29" max="29" width="163.7109375" customWidth="1"/>
-    <col min="30" max="30" width="58.7109375" customWidth="1"/>
-    <col min="31" max="31" width="141.7109375" customWidth="1"/>
-    <col min="32" max="32" width="52.7109375" customWidth="1"/>
-    <col min="33" max="33" width="63.7109375" customWidth="1"/>
-    <col min="34" max="34" width="59.7109375" customWidth="1"/>
-    <col min="35" max="35" width="108.7109375" customWidth="1"/>
-    <col min="36" max="36" width="108.7109375" customWidth="1"/>
-    <col min="37" max="37" width="69.7109375" customWidth="1"/>
-    <col min="38" max="38" width="58.7109375" customWidth="1"/>
-    <col min="39" max="39" width="141.7109375" customWidth="1"/>
-    <col min="40" max="40" width="117.7109375" customWidth="1"/>
-    <col min="41" max="41" width="80.7109375" customWidth="1"/>
-    <col min="42" max="42" width="73.7109375" customWidth="1"/>
-    <col min="43" max="43" width="71.7109375" customWidth="1"/>
-    <col min="44" max="44" width="32.7109375" customWidth="1"/>
-    <col min="45" max="45" width="67.7109375" customWidth="1"/>
-    <col min="46" max="46" width="41.7109375" customWidth="1"/>
-    <col min="47" max="47" width="84.7109375" customWidth="1"/>
-    <col min="48" max="48" width="104.7109375" customWidth="1"/>
-    <col min="49" max="49" width="104.7109375" customWidth="1"/>
-    <col min="50" max="50" width="104.7109375" customWidth="1"/>
-    <col min="51" max="51" width="88.7109375" customWidth="1"/>
-    <col min="52" max="52" width="69.7109375" customWidth="1"/>
-    <col min="53" max="53" width="58.7109375" customWidth="1"/>
-    <col min="54" max="54" width="141.7109375" customWidth="1"/>
-    <col min="55" max="55" width="67.7109375" customWidth="1"/>
-    <col min="56" max="56" width="58.7109375" customWidth="1"/>
-    <col min="57" max="57" width="141.7109375" customWidth="1"/>
-    <col min="58" max="58" width="79.7109375" customWidth="1"/>
-    <col min="59" max="59" width="175.7109375" customWidth="1"/>
+    <col min="1" max="1" width="73.6640625" customWidth="1"/>
+    <col min="2" max="3" width="71.6640625" customWidth="1"/>
+    <col min="4" max="4" width="47.6640625" customWidth="1"/>
+    <col min="5" max="5" width="61.6640625" customWidth="1"/>
+    <col min="6" max="6" width="325.6640625" customWidth="1"/>
+    <col min="7" max="7" width="176.6640625" customWidth="1"/>
+    <col min="8" max="8" width="171.6640625" customWidth="1"/>
+    <col min="9" max="9" width="134.6640625" customWidth="1"/>
+    <col min="10" max="10" width="57.6640625" customWidth="1"/>
+    <col min="11" max="11" width="85.6640625" customWidth="1"/>
+    <col min="12" max="12" width="69.6640625" customWidth="1"/>
+    <col min="13" max="13" width="58.6640625" customWidth="1"/>
+    <col min="14" max="14" width="141.6640625" customWidth="1"/>
+    <col min="15" max="15" width="70.6640625" customWidth="1"/>
+    <col min="16" max="16" width="57.6640625" customWidth="1"/>
+    <col min="17" max="17" width="54.6640625" customWidth="1"/>
+    <col min="18" max="18" width="68.6640625" customWidth="1"/>
+    <col min="19" max="19" width="62.6640625" customWidth="1"/>
+    <col min="20" max="20" width="81.6640625" customWidth="1"/>
+    <col min="21" max="21" width="61.6640625" customWidth="1"/>
+    <col min="22" max="22" width="195.6640625" customWidth="1"/>
+    <col min="23" max="23" width="62.6640625" customWidth="1"/>
+    <col min="24" max="24" width="150.6640625" customWidth="1"/>
+    <col min="25" max="25" width="78.6640625" customWidth="1"/>
+    <col min="26" max="26" width="64.6640625" customWidth="1"/>
+    <col min="27" max="27" width="58.6640625" customWidth="1"/>
+    <col min="28" max="28" width="141.6640625" customWidth="1"/>
+    <col min="29" max="29" width="163.6640625" customWidth="1"/>
+    <col min="30" max="30" width="58.6640625" customWidth="1"/>
+    <col min="31" max="31" width="141.6640625" customWidth="1"/>
+    <col min="32" max="32" width="52.6640625" customWidth="1"/>
+    <col min="33" max="33" width="63.6640625" customWidth="1"/>
+    <col min="34" max="34" width="59.6640625" customWidth="1"/>
+    <col min="35" max="36" width="108.6640625" customWidth="1"/>
+    <col min="37" max="37" width="69.6640625" customWidth="1"/>
+    <col min="38" max="38" width="58.6640625" customWidth="1"/>
+    <col min="39" max="39" width="141.6640625" customWidth="1"/>
+    <col min="40" max="40" width="117.6640625" customWidth="1"/>
+    <col min="41" max="41" width="80.6640625" customWidth="1"/>
+    <col min="42" max="42" width="73.6640625" customWidth="1"/>
+    <col min="43" max="43" width="71.6640625" customWidth="1"/>
+    <col min="44" max="44" width="32.6640625" customWidth="1"/>
+    <col min="45" max="45" width="67.6640625" customWidth="1"/>
+    <col min="46" max="46" width="41.6640625" customWidth="1"/>
+    <col min="47" max="47" width="84.6640625" customWidth="1"/>
+    <col min="48" max="50" width="104.6640625" customWidth="1"/>
+    <col min="51" max="51" width="88.6640625" customWidth="1"/>
+    <col min="52" max="52" width="69.6640625" customWidth="1"/>
+    <col min="53" max="53" width="58.6640625" customWidth="1"/>
+    <col min="54" max="54" width="141.6640625" customWidth="1"/>
+    <col min="55" max="55" width="67.6640625" customWidth="1"/>
+    <col min="56" max="56" width="58.6640625" customWidth="1"/>
+    <col min="57" max="57" width="141.6640625" customWidth="1"/>
+    <col min="58" max="58" width="79.6640625" customWidth="1"/>
+    <col min="59" max="59" width="175.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3662,7 +3711,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:59">
+    <row r="2" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -3841,7 +3890,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:59">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>105</v>
       </c>
@@ -3999,7 +4048,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:59">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>148</v>
       </c>
@@ -4178,12 +4227,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:59">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:59">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>208</v>
       </c>
@@ -4209,7 +4258,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="7" spans="1:59">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>215</v>
       </c>
@@ -4235,7 +4284,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="8" spans="1:59">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>219</v>
       </c>
@@ -4261,7 +4310,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="9" spans="1:59">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>223</v>
       </c>
@@ -4287,7 +4336,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="10" spans="1:59">
+    <row r="10" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>227</v>
       </c>
@@ -4313,7 +4362,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="11" spans="1:59">
+    <row r="11" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>231</v>
       </c>
@@ -4339,7 +4388,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="12" spans="1:59">
+    <row r="12" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>235</v>
       </c>
@@ -4365,7 +4414,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="13" spans="1:59">
+    <row r="13" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>239</v>
       </c>
@@ -4391,7 +4440,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="14" spans="1:59">
+    <row r="14" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>243</v>
       </c>
@@ -4423,93 +4472,91 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BY14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="72.7109375" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
-    <col min="3" max="3" width="70.7109375" customWidth="1"/>
-    <col min="4" max="4" width="46.7109375" customWidth="1"/>
-    <col min="5" max="5" width="61.7109375" customWidth="1"/>
-    <col min="6" max="6" width="62.7109375" customWidth="1"/>
-    <col min="7" max="7" width="176.7109375" customWidth="1"/>
-    <col min="8" max="8" width="171.7109375" customWidth="1"/>
-    <col min="9" max="9" width="134.7109375" customWidth="1"/>
-    <col min="10" max="10" width="46.7109375" customWidth="1"/>
-    <col min="11" max="11" width="103.7109375" customWidth="1"/>
-    <col min="12" max="12" width="58.7109375" customWidth="1"/>
-    <col min="13" max="13" width="141.7109375" customWidth="1"/>
-    <col min="14" max="14" width="42.7109375" customWidth="1"/>
-    <col min="15" max="15" width="58.7109375" customWidth="1"/>
-    <col min="16" max="16" width="141.7109375" customWidth="1"/>
-    <col min="17" max="17" width="62.7109375" customWidth="1"/>
-    <col min="18" max="18" width="58.7109375" customWidth="1"/>
-    <col min="19" max="19" width="141.7109375" customWidth="1"/>
-    <col min="20" max="20" width="65.7109375" customWidth="1"/>
-    <col min="21" max="21" width="221.7109375" customWidth="1"/>
-    <col min="22" max="22" width="106.7109375" customWidth="1"/>
-    <col min="23" max="23" width="69.7109375" customWidth="1"/>
-    <col min="24" max="24" width="58.7109375" customWidth="1"/>
-    <col min="25" max="25" width="141.7109375" customWidth="1"/>
-    <col min="26" max="26" width="77.7109375" customWidth="1"/>
-    <col min="27" max="27" width="58.7109375" customWidth="1"/>
-    <col min="28" max="28" width="141.7109375" customWidth="1"/>
-    <col min="29" max="29" width="82.7109375" customWidth="1"/>
-    <col min="30" max="30" width="58.7109375" customWidth="1"/>
-    <col min="31" max="31" width="141.7109375" customWidth="1"/>
-    <col min="32" max="32" width="134.7109375" customWidth="1"/>
-    <col min="33" max="33" width="90.7109375" customWidth="1"/>
-    <col min="34" max="34" width="52.7109375" customWidth="1"/>
-    <col min="35" max="35" width="143.7109375" customWidth="1"/>
-    <col min="36" max="36" width="136.7109375" customWidth="1"/>
-    <col min="37" max="37" width="147.7109375" customWidth="1"/>
-    <col min="38" max="38" width="155.7109375" customWidth="1"/>
-    <col min="39" max="39" width="172.7109375" customWidth="1"/>
-    <col min="40" max="40" width="129.7109375" customWidth="1"/>
-    <col min="41" max="41" width="137.7109375" customWidth="1"/>
-    <col min="42" max="42" width="74.7109375" customWidth="1"/>
-    <col min="43" max="43" width="89.7109375" customWidth="1"/>
-    <col min="44" max="44" width="174.7109375" customWidth="1"/>
-    <col min="45" max="45" width="154.7109375" customWidth="1"/>
-    <col min="46" max="46" width="69.7109375" customWidth="1"/>
-    <col min="47" max="47" width="58.7109375" customWidth="1"/>
-    <col min="48" max="48" width="141.7109375" customWidth="1"/>
-    <col min="49" max="49" width="109.7109375" customWidth="1"/>
-    <col min="50" max="50" width="69.7109375" customWidth="1"/>
-    <col min="51" max="51" width="58.7109375" customWidth="1"/>
-    <col min="52" max="52" width="141.7109375" customWidth="1"/>
-    <col min="53" max="53" width="106.7109375" customWidth="1"/>
-    <col min="54" max="54" width="69.7109375" customWidth="1"/>
-    <col min="55" max="55" width="58.7109375" customWidth="1"/>
-    <col min="56" max="56" width="141.7109375" customWidth="1"/>
-    <col min="57" max="57" width="108.7109375" customWidth="1"/>
-    <col min="58" max="58" width="69.7109375" customWidth="1"/>
-    <col min="59" max="59" width="58.7109375" customWidth="1"/>
-    <col min="60" max="60" width="141.7109375" customWidth="1"/>
-    <col min="61" max="61" width="117.7109375" customWidth="1"/>
-    <col min="62" max="62" width="32.7109375" customWidth="1"/>
-    <col min="63" max="63" width="67.7109375" customWidth="1"/>
-    <col min="64" max="64" width="41.7109375" customWidth="1"/>
-    <col min="65" max="65" width="84.7109375" customWidth="1"/>
-    <col min="66" max="66" width="104.7109375" customWidth="1"/>
-    <col min="67" max="67" width="104.7109375" customWidth="1"/>
-    <col min="68" max="68" width="104.7109375" customWidth="1"/>
-    <col min="69" max="69" width="88.7109375" customWidth="1"/>
-    <col min="70" max="70" width="69.7109375" customWidth="1"/>
-    <col min="71" max="71" width="58.7109375" customWidth="1"/>
-    <col min="72" max="72" width="141.7109375" customWidth="1"/>
-    <col min="73" max="73" width="67.7109375" customWidth="1"/>
-    <col min="74" max="74" width="58.7109375" customWidth="1"/>
-    <col min="75" max="75" width="141.7109375" customWidth="1"/>
-    <col min="76" max="76" width="79.7109375" customWidth="1"/>
-    <col min="77" max="77" width="175.7109375" customWidth="1"/>
+    <col min="1" max="1" width="72.6640625" customWidth="1"/>
+    <col min="2" max="2" width="71.6640625" customWidth="1"/>
+    <col min="3" max="3" width="70.6640625" customWidth="1"/>
+    <col min="4" max="4" width="46.6640625" customWidth="1"/>
+    <col min="5" max="5" width="61.6640625" customWidth="1"/>
+    <col min="6" max="6" width="62.6640625" customWidth="1"/>
+    <col min="7" max="7" width="176.6640625" customWidth="1"/>
+    <col min="8" max="8" width="171.6640625" customWidth="1"/>
+    <col min="9" max="9" width="134.6640625" customWidth="1"/>
+    <col min="10" max="10" width="46.6640625" customWidth="1"/>
+    <col min="11" max="11" width="103.6640625" customWidth="1"/>
+    <col min="12" max="12" width="58.6640625" customWidth="1"/>
+    <col min="13" max="13" width="141.6640625" customWidth="1"/>
+    <col min="14" max="14" width="42.6640625" customWidth="1"/>
+    <col min="15" max="15" width="58.6640625" customWidth="1"/>
+    <col min="16" max="16" width="141.6640625" customWidth="1"/>
+    <col min="17" max="17" width="62.6640625" customWidth="1"/>
+    <col min="18" max="18" width="58.6640625" customWidth="1"/>
+    <col min="19" max="19" width="141.6640625" customWidth="1"/>
+    <col min="20" max="20" width="65.6640625" customWidth="1"/>
+    <col min="21" max="21" width="221.6640625" customWidth="1"/>
+    <col min="22" max="22" width="106.6640625" customWidth="1"/>
+    <col min="23" max="23" width="69.6640625" customWidth="1"/>
+    <col min="24" max="24" width="58.6640625" customWidth="1"/>
+    <col min="25" max="25" width="141.6640625" customWidth="1"/>
+    <col min="26" max="26" width="77.6640625" customWidth="1"/>
+    <col min="27" max="27" width="58.6640625" customWidth="1"/>
+    <col min="28" max="28" width="141.6640625" customWidth="1"/>
+    <col min="29" max="29" width="82.6640625" customWidth="1"/>
+    <col min="30" max="30" width="58.6640625" customWidth="1"/>
+    <col min="31" max="31" width="141.6640625" customWidth="1"/>
+    <col min="32" max="32" width="134.6640625" customWidth="1"/>
+    <col min="33" max="33" width="90.6640625" customWidth="1"/>
+    <col min="34" max="34" width="52.6640625" customWidth="1"/>
+    <col min="35" max="35" width="143.6640625" customWidth="1"/>
+    <col min="36" max="36" width="136.6640625" customWidth="1"/>
+    <col min="37" max="37" width="147.6640625" customWidth="1"/>
+    <col min="38" max="38" width="155.6640625" customWidth="1"/>
+    <col min="39" max="39" width="172.6640625" customWidth="1"/>
+    <col min="40" max="40" width="129.6640625" customWidth="1"/>
+    <col min="41" max="41" width="137.6640625" customWidth="1"/>
+    <col min="42" max="42" width="74.6640625" customWidth="1"/>
+    <col min="43" max="43" width="89.6640625" customWidth="1"/>
+    <col min="44" max="44" width="174.6640625" customWidth="1"/>
+    <col min="45" max="45" width="154.6640625" customWidth="1"/>
+    <col min="46" max="46" width="69.6640625" customWidth="1"/>
+    <col min="47" max="47" width="58.6640625" customWidth="1"/>
+    <col min="48" max="48" width="141.6640625" customWidth="1"/>
+    <col min="49" max="49" width="109.6640625" customWidth="1"/>
+    <col min="50" max="50" width="69.6640625" customWidth="1"/>
+    <col min="51" max="51" width="58.6640625" customWidth="1"/>
+    <col min="52" max="52" width="141.6640625" customWidth="1"/>
+    <col min="53" max="53" width="106.6640625" customWidth="1"/>
+    <col min="54" max="54" width="69.6640625" customWidth="1"/>
+    <col min="55" max="55" width="58.6640625" customWidth="1"/>
+    <col min="56" max="56" width="141.6640625" customWidth="1"/>
+    <col min="57" max="57" width="108.6640625" customWidth="1"/>
+    <col min="58" max="58" width="69.6640625" customWidth="1"/>
+    <col min="59" max="59" width="58.6640625" customWidth="1"/>
+    <col min="60" max="60" width="141.6640625" customWidth="1"/>
+    <col min="61" max="61" width="117.6640625" customWidth="1"/>
+    <col min="62" max="62" width="32.6640625" customWidth="1"/>
+    <col min="63" max="63" width="67.6640625" customWidth="1"/>
+    <col min="64" max="64" width="41.6640625" customWidth="1"/>
+    <col min="65" max="65" width="84.6640625" customWidth="1"/>
+    <col min="66" max="68" width="104.6640625" customWidth="1"/>
+    <col min="69" max="69" width="88.6640625" customWidth="1"/>
+    <col min="70" max="70" width="69.6640625" customWidth="1"/>
+    <col min="71" max="71" width="58.6640625" customWidth="1"/>
+    <col min="72" max="72" width="141.6640625" customWidth="1"/>
+    <col min="73" max="73" width="67.6640625" customWidth="1"/>
+    <col min="74" max="74" width="58.6640625" customWidth="1"/>
+    <col min="75" max="75" width="141.6640625" customWidth="1"/>
+    <col min="76" max="76" width="79.6640625" customWidth="1"/>
+    <col min="77" max="77" width="175.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:77">
+    <row r="1" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>247</v>
       </c>
@@ -4742,7 +4789,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:77">
+    <row r="2" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -4975,7 +5022,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:77">
+    <row r="3" spans="1:77" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>105</v>
       </c>
@@ -5190,7 +5237,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:77">
+    <row r="4" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>351</v>
       </c>
@@ -5423,12 +5470,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:77">
+    <row r="5" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:77">
+    <row r="6" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>412</v>
       </c>
@@ -5442,7 +5489,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="7" spans="1:77">
+    <row r="7" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>415</v>
       </c>
@@ -5456,7 +5503,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="8" spans="1:77">
+    <row r="8" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>416</v>
       </c>
@@ -5470,7 +5517,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="9" spans="1:77">
+    <row r="9" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>417</v>
       </c>
@@ -5484,7 +5531,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="10" spans="1:77">
+    <row r="10" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>418</v>
       </c>
@@ -5498,7 +5545,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="11" spans="1:77">
+    <row r="11" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>420</v>
       </c>
@@ -5512,7 +5559,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="12" spans="1:77">
+    <row r="12" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>421</v>
       </c>
@@ -5526,7 +5573,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="13" spans="1:77">
+    <row r="13" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>422</v>
       </c>
@@ -5540,7 +5587,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="14" spans="1:77">
+    <row r="14" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>423</v>
       </c>
@@ -5563,28 +5610,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="71.7109375" customWidth="1"/>
-    <col min="2" max="2" width="62.7109375" customWidth="1"/>
-    <col min="3" max="3" width="69.7109375" customWidth="1"/>
-    <col min="4" max="4" width="66.7109375" customWidth="1"/>
-    <col min="5" max="5" width="67.7109375" customWidth="1"/>
-    <col min="6" max="6" width="69.7109375" customWidth="1"/>
-    <col min="7" max="7" width="67.7109375" customWidth="1"/>
-    <col min="8" max="8" width="58.7109375" customWidth="1"/>
-    <col min="9" max="9" width="141.7109375" customWidth="1"/>
-    <col min="10" max="10" width="141.7109375" customWidth="1"/>
-    <col min="11" max="11" width="62.7109375" customWidth="1"/>
-    <col min="12" max="12" width="62.7109375" customWidth="1"/>
+    <col min="1" max="1" width="71.6640625" customWidth="1"/>
+    <col min="2" max="2" width="62.6640625" customWidth="1"/>
+    <col min="3" max="3" width="69.6640625" customWidth="1"/>
+    <col min="4" max="4" width="66.6640625" customWidth="1"/>
+    <col min="5" max="5" width="67.6640625" customWidth="1"/>
+    <col min="6" max="6" width="69.6640625" customWidth="1"/>
+    <col min="7" max="7" width="67.6640625" customWidth="1"/>
+    <col min="8" max="8" width="58.6640625" customWidth="1"/>
+    <col min="9" max="10" width="141.6640625" customWidth="1"/>
+    <col min="11" max="12" width="62.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>42</v>
       </c>
@@ -5622,7 +5667,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -5660,7 +5705,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>139</v>
       </c>
@@ -5692,7 +5737,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>190</v>
       </c>
@@ -5730,12 +5775,12 @@
         <v>460</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>214</v>
       </c>
@@ -5749,67 +5794,65 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AY6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="80.7109375" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
-    <col min="3" max="3" width="317.7109375" customWidth="1"/>
-    <col min="4" max="4" width="66.7109375" customWidth="1"/>
-    <col min="5" max="5" width="67.7109375" customWidth="1"/>
-    <col min="6" max="6" width="69.7109375" customWidth="1"/>
-    <col min="7" max="7" width="71.7109375" customWidth="1"/>
-    <col min="8" max="8" width="57.7109375" customWidth="1"/>
-    <col min="9" max="9" width="57.7109375" customWidth="1"/>
-    <col min="10" max="10" width="80.7109375" customWidth="1"/>
-    <col min="11" max="11" width="84.7109375" customWidth="1"/>
-    <col min="12" max="12" width="66.7109375" customWidth="1"/>
-    <col min="13" max="13" width="141.7109375" customWidth="1"/>
-    <col min="14" max="14" width="102.7109375" customWidth="1"/>
-    <col min="15" max="15" width="67.7109375" customWidth="1"/>
-    <col min="16" max="16" width="66.7109375" customWidth="1"/>
-    <col min="17" max="17" width="141.7109375" customWidth="1"/>
-    <col min="18" max="18" width="90.7109375" customWidth="1"/>
-    <col min="19" max="19" width="69.7109375" customWidth="1"/>
-    <col min="20" max="20" width="67.7109375" customWidth="1"/>
-    <col min="21" max="21" width="65.7109375" customWidth="1"/>
-    <col min="22" max="22" width="111.7109375" customWidth="1"/>
-    <col min="23" max="23" width="91.7109375" customWidth="1"/>
-    <col min="24" max="24" width="90.7109375" customWidth="1"/>
-    <col min="25" max="25" width="72.7109375" customWidth="1"/>
-    <col min="26" max="26" width="70.7109375" customWidth="1"/>
-    <col min="27" max="27" width="68.7109375" customWidth="1"/>
-    <col min="28" max="28" width="111.7109375" customWidth="1"/>
-    <col min="29" max="29" width="91.7109375" customWidth="1"/>
-    <col min="30" max="30" width="161.7109375" customWidth="1"/>
-    <col min="31" max="31" width="52.7109375" customWidth="1"/>
-    <col min="32" max="32" width="320.7109375" customWidth="1"/>
-    <col min="33" max="33" width="90.7109375" customWidth="1"/>
-    <col min="34" max="34" width="57.7109375" customWidth="1"/>
-    <col min="35" max="35" width="55.7109375" customWidth="1"/>
-    <col min="36" max="36" width="53.7109375" customWidth="1"/>
-    <col min="37" max="37" width="111.7109375" customWidth="1"/>
-    <col min="38" max="38" width="91.7109375" customWidth="1"/>
-    <col min="39" max="39" width="47.7109375" customWidth="1"/>
-    <col min="40" max="40" width="71.7109375" customWidth="1"/>
-    <col min="41" max="41" width="56.7109375" customWidth="1"/>
-    <col min="42" max="42" width="56.7109375" customWidth="1"/>
-    <col min="43" max="43" width="80.7109375" customWidth="1"/>
-    <col min="44" max="44" width="67.7109375" customWidth="1"/>
-    <col min="45" max="45" width="70.7109375" customWidth="1"/>
-    <col min="46" max="46" width="141.7109375" customWidth="1"/>
-    <col min="47" max="47" width="68.7109375" customWidth="1"/>
-    <col min="48" max="48" width="72.7109375" customWidth="1"/>
-    <col min="49" max="49" width="141.7109375" customWidth="1"/>
-    <col min="50" max="50" width="56.7109375" customWidth="1"/>
-    <col min="51" max="51" width="74.7109375" customWidth="1"/>
+    <col min="1" max="1" width="80.6640625" customWidth="1"/>
+    <col min="2" max="2" width="71.6640625" customWidth="1"/>
+    <col min="3" max="3" width="317.6640625" customWidth="1"/>
+    <col min="4" max="4" width="66.6640625" customWidth="1"/>
+    <col min="5" max="5" width="67.6640625" customWidth="1"/>
+    <col min="6" max="6" width="69.6640625" customWidth="1"/>
+    <col min="7" max="7" width="71.6640625" customWidth="1"/>
+    <col min="8" max="9" width="57.6640625" customWidth="1"/>
+    <col min="10" max="10" width="80.6640625" customWidth="1"/>
+    <col min="11" max="11" width="84.6640625" customWidth="1"/>
+    <col min="12" max="12" width="66.6640625" customWidth="1"/>
+    <col min="13" max="13" width="141.6640625" customWidth="1"/>
+    <col min="14" max="14" width="102.6640625" customWidth="1"/>
+    <col min="15" max="15" width="67.6640625" customWidth="1"/>
+    <col min="16" max="16" width="66.6640625" customWidth="1"/>
+    <col min="17" max="17" width="141.6640625" customWidth="1"/>
+    <col min="18" max="18" width="90.6640625" customWidth="1"/>
+    <col min="19" max="19" width="69.6640625" customWidth="1"/>
+    <col min="20" max="20" width="67.6640625" customWidth="1"/>
+    <col min="21" max="21" width="65.6640625" customWidth="1"/>
+    <col min="22" max="22" width="111.6640625" customWidth="1"/>
+    <col min="23" max="23" width="91.6640625" customWidth="1"/>
+    <col min="24" max="24" width="90.6640625" customWidth="1"/>
+    <col min="25" max="25" width="72.6640625" customWidth="1"/>
+    <col min="26" max="26" width="70.6640625" customWidth="1"/>
+    <col min="27" max="27" width="68.6640625" customWidth="1"/>
+    <col min="28" max="28" width="111.6640625" customWidth="1"/>
+    <col min="29" max="29" width="91.6640625" customWidth="1"/>
+    <col min="30" max="30" width="161.6640625" customWidth="1"/>
+    <col min="31" max="31" width="52.6640625" customWidth="1"/>
+    <col min="32" max="32" width="320.6640625" customWidth="1"/>
+    <col min="33" max="33" width="90.6640625" customWidth="1"/>
+    <col min="34" max="34" width="57.6640625" customWidth="1"/>
+    <col min="35" max="35" width="55.6640625" customWidth="1"/>
+    <col min="36" max="36" width="53.6640625" customWidth="1"/>
+    <col min="37" max="37" width="111.6640625" customWidth="1"/>
+    <col min="38" max="38" width="91.6640625" customWidth="1"/>
+    <col min="39" max="39" width="47.6640625" customWidth="1"/>
+    <col min="40" max="40" width="71.6640625" customWidth="1"/>
+    <col min="41" max="42" width="56.6640625" customWidth="1"/>
+    <col min="43" max="43" width="80.6640625" customWidth="1"/>
+    <col min="44" max="44" width="67.6640625" customWidth="1"/>
+    <col min="45" max="45" width="70.6640625" customWidth="1"/>
+    <col min="46" max="46" width="141.6640625" customWidth="1"/>
+    <col min="47" max="47" width="68.6640625" customWidth="1"/>
+    <col min="48" max="48" width="72.6640625" customWidth="1"/>
+    <col min="49" max="49" width="141.6640625" customWidth="1"/>
+    <col min="50" max="50" width="56.6640625" customWidth="1"/>
+    <col min="51" max="51" width="74.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>462</v>
       </c>
@@ -5964,7 +6007,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="2" spans="1:51">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -6119,7 +6162,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="3" spans="1:51">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>139</v>
       </c>
@@ -6268,7 +6311,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="4" spans="1:51">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>552</v>
       </c>
@@ -6423,12 +6466,12 @@
         <v>602</v>
       </c>
     </row>
-    <row r="5" spans="1:51">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:51">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>603</v>
       </c>
@@ -6445,25 +6488,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="162.7109375" customWidth="1"/>
-    <col min="2" max="2" width="153.7109375" customWidth="1"/>
-    <col min="3" max="3" width="449.7109375" customWidth="1"/>
-    <col min="4" max="4" width="135.7109375" customWidth="1"/>
-    <col min="5" max="5" width="171.7109375" customWidth="1"/>
-    <col min="6" max="6" width="99.7109375" customWidth="1"/>
-    <col min="7" max="7" width="99.7109375" customWidth="1"/>
-    <col min="8" max="8" width="174.7109375" customWidth="1"/>
-    <col min="9" max="9" width="75.7109375" customWidth="1"/>
+    <col min="1" max="1" width="162.6640625" customWidth="1"/>
+    <col min="2" max="2" width="153.6640625" customWidth="1"/>
+    <col min="3" max="3" width="449.6640625" customWidth="1"/>
+    <col min="4" max="4" width="135.6640625" customWidth="1"/>
+    <col min="5" max="5" width="171.6640625" customWidth="1"/>
+    <col min="6" max="7" width="99.6640625" customWidth="1"/>
+    <col min="8" max="8" width="174.6640625" customWidth="1"/>
+    <col min="9" max="9" width="75.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>606</v>
       </c>
@@ -6492,7 +6534,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>615</v>
       </c>
@@ -6521,7 +6563,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>624</v>
       </c>
@@ -6550,7 +6592,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>633</v>
       </c>
@@ -6579,12 +6621,12 @@
         <v>641</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>642</v>
       </c>
@@ -6610,28 +6652,28 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="H1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="103.7109375" customWidth="1"/>
-    <col min="2" max="2" width="34.7109375" customWidth="1"/>
-    <col min="3" max="3" width="57.7109375" customWidth="1"/>
-    <col min="4" max="4" width="54.7109375" customWidth="1"/>
-    <col min="5" max="5" width="75.7109375" customWidth="1"/>
-    <col min="6" max="6" width="127.7109375" customWidth="1"/>
-    <col min="7" max="7" width="36.7109375" customWidth="1"/>
-    <col min="8" max="8" width="70.7109375" customWidth="1"/>
-    <col min="9" max="9" width="64.7109375" customWidth="1"/>
-    <col min="10" max="10" width="58.7109375" customWidth="1"/>
-    <col min="11" max="11" width="141.7109375" customWidth="1"/>
-    <col min="12" max="12" width="51.7109375" customWidth="1"/>
+    <col min="1" max="1" width="103.6640625" customWidth="1"/>
+    <col min="2" max="2" width="34.6640625" customWidth="1"/>
+    <col min="3" max="3" width="57.6640625" customWidth="1"/>
+    <col min="4" max="4" width="54.6640625" customWidth="1"/>
+    <col min="5" max="5" width="75.6640625" customWidth="1"/>
+    <col min="6" max="6" width="127.6640625" customWidth="1"/>
+    <col min="7" max="7" width="36.6640625" customWidth="1"/>
+    <col min="8" max="8" width="70.6640625" customWidth="1"/>
+    <col min="9" max="9" width="64.6640625" customWidth="1"/>
+    <col min="10" max="10" width="58.6640625" customWidth="1"/>
+    <col min="11" max="11" width="141.6640625" customWidth="1"/>
+    <col min="12" max="12" width="51.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>648</v>
       </c>
@@ -6669,7 +6711,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>660</v>
       </c>
@@ -6707,7 +6749,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>670</v>
       </c>
@@ -6745,7 +6787,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>681</v>
       </c>
@@ -6783,12 +6825,12 @@
         <v>692</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>693</v>
       </c>
@@ -6805,67 +6847,67 @@
         <v>697</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>710</v>
       </c>
@@ -6876,46 +6918,44 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AD77"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="85.7109375" customWidth="1"/>
-    <col min="2" max="2" width="94.7109375" customWidth="1"/>
-    <col min="3" max="3" width="53.7109375" customWidth="1"/>
-    <col min="4" max="4" width="58.7109375" customWidth="1"/>
-    <col min="5" max="5" width="141.7109375" customWidth="1"/>
-    <col min="6" max="6" width="47.7109375" customWidth="1"/>
-    <col min="7" max="7" width="117.7109375" customWidth="1"/>
-    <col min="8" max="8" width="44.7109375" customWidth="1"/>
-    <col min="9" max="9" width="61.7109375" customWidth="1"/>
-    <col min="10" max="10" width="168.7109375" customWidth="1"/>
-    <col min="11" max="11" width="156.7109375" customWidth="1"/>
-    <col min="12" max="12" width="73.7109375" customWidth="1"/>
-    <col min="13" max="13" width="80.7109375" customWidth="1"/>
-    <col min="14" max="14" width="71.7109375" customWidth="1"/>
-    <col min="15" max="15" width="32.7109375" customWidth="1"/>
-    <col min="16" max="16" width="67.7109375" customWidth="1"/>
-    <col min="17" max="17" width="41.7109375" customWidth="1"/>
-    <col min="18" max="18" width="84.7109375" customWidth="1"/>
-    <col min="19" max="19" width="104.7109375" customWidth="1"/>
-    <col min="20" max="20" width="104.7109375" customWidth="1"/>
-    <col min="21" max="21" width="104.7109375" customWidth="1"/>
-    <col min="22" max="22" width="88.7109375" customWidth="1"/>
-    <col min="23" max="23" width="69.7109375" customWidth="1"/>
-    <col min="24" max="24" width="58.7109375" customWidth="1"/>
-    <col min="25" max="25" width="141.7109375" customWidth="1"/>
-    <col min="26" max="26" width="67.7109375" customWidth="1"/>
-    <col min="27" max="27" width="58.7109375" customWidth="1"/>
-    <col min="28" max="28" width="141.7109375" customWidth="1"/>
-    <col min="29" max="29" width="79.7109375" customWidth="1"/>
-    <col min="30" max="30" width="175.7109375" customWidth="1"/>
+    <col min="1" max="1" width="85.6640625" customWidth="1"/>
+    <col min="2" max="2" width="94.6640625" customWidth="1"/>
+    <col min="3" max="3" width="53.6640625" customWidth="1"/>
+    <col min="4" max="4" width="58.6640625" customWidth="1"/>
+    <col min="5" max="5" width="141.6640625" customWidth="1"/>
+    <col min="6" max="6" width="47.6640625" customWidth="1"/>
+    <col min="7" max="7" width="117.6640625" customWidth="1"/>
+    <col min="8" max="8" width="44.6640625" customWidth="1"/>
+    <col min="9" max="9" width="61.6640625" customWidth="1"/>
+    <col min="10" max="10" width="168.6640625" customWidth="1"/>
+    <col min="11" max="11" width="156.6640625" customWidth="1"/>
+    <col min="12" max="12" width="73.6640625" customWidth="1"/>
+    <col min="13" max="13" width="80.6640625" customWidth="1"/>
+    <col min="14" max="14" width="71.6640625" customWidth="1"/>
+    <col min="15" max="15" width="32.6640625" customWidth="1"/>
+    <col min="16" max="16" width="67.6640625" customWidth="1"/>
+    <col min="17" max="17" width="41.6640625" customWidth="1"/>
+    <col min="18" max="18" width="84.6640625" customWidth="1"/>
+    <col min="19" max="21" width="104.6640625" customWidth="1"/>
+    <col min="22" max="22" width="88.6640625" customWidth="1"/>
+    <col min="23" max="23" width="69.6640625" customWidth="1"/>
+    <col min="24" max="24" width="58.6640625" customWidth="1"/>
+    <col min="25" max="25" width="141.6640625" customWidth="1"/>
+    <col min="26" max="26" width="67.6640625" customWidth="1"/>
+    <col min="27" max="27" width="58.6640625" customWidth="1"/>
+    <col min="28" max="28" width="141.6640625" customWidth="1"/>
+    <col min="29" max="29" width="79.6640625" customWidth="1"/>
+    <col min="30" max="30" width="175.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>711</v>
       </c>
@@ -7007,7 +7047,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>723</v>
       </c>
@@ -7099,7 +7139,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>732</v>
       </c>
@@ -7179,7 +7219,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>742</v>
       </c>
@@ -7271,12 +7311,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>754</v>
       </c>
@@ -7299,7 +7339,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>759</v>
       </c>
@@ -7322,7 +7362,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>761</v>
       </c>
@@ -7345,7 +7385,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>763</v>
       </c>
@@ -7368,7 +7408,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>764</v>
       </c>
@@ -7391,7 +7431,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>766</v>
       </c>
@@ -7414,7 +7454,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>767</v>
       </c>
@@ -7437,7 +7477,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>769</v>
       </c>
@@ -7460,7 +7500,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>770</v>
       </c>
@@ -7483,7 +7523,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>772</v>
       </c>
@@ -7506,7 +7546,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>773</v>
       </c>
@@ -7529,7 +7569,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>775</v>
       </c>
@@ -7552,7 +7592,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>776</v>
       </c>
@@ -7575,7 +7615,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>778</v>
       </c>
@@ -7598,7 +7638,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>779</v>
       </c>
@@ -7621,7 +7661,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>781</v>
       </c>
@@ -7644,7 +7684,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>782</v>
       </c>
@@ -7667,7 +7707,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>784</v>
       </c>
@@ -7690,7 +7730,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>785</v>
       </c>
@@ -7713,7 +7753,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>787</v>
       </c>
@@ -7736,7 +7776,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>788</v>
       </c>
@@ -7759,7 +7799,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>790</v>
       </c>
@@ -7782,7 +7822,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>791</v>
       </c>
@@ -7805,7 +7845,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>793</v>
       </c>
@@ -7828,7 +7868,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>794</v>
       </c>
@@ -7851,7 +7891,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>796</v>
       </c>
@@ -7874,7 +7914,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>797</v>
       </c>
@@ -7897,7 +7937,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>799</v>
       </c>
@@ -7920,7 +7960,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>800</v>
       </c>
@@ -7943,7 +7983,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>802</v>
       </c>
@@ -7966,7 +8006,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>803</v>
       </c>
@@ -7989,7 +8029,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>805</v>
       </c>
@@ -8012,7 +8052,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>806</v>
       </c>
@@ -8035,7 +8075,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>808</v>
       </c>
@@ -8058,7 +8098,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>809</v>
       </c>
@@ -8081,7 +8121,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>811</v>
       </c>
@@ -8104,7 +8144,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>812</v>
       </c>
@@ -8127,7 +8167,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>814</v>
       </c>
@@ -8150,7 +8190,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>815</v>
       </c>
@@ -8173,7 +8213,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>817</v>
       </c>
@@ -8196,7 +8236,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>818</v>
       </c>
@@ -8219,7 +8259,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>820</v>
       </c>
@@ -8242,7 +8282,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>821</v>
       </c>
@@ -8265,7 +8305,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>823</v>
       </c>
@@ -8288,7 +8328,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>824</v>
       </c>
@@ -8311,7 +8351,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>826</v>
       </c>
@@ -8334,7 +8374,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>827</v>
       </c>
@@ -8357,7 +8397,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>829</v>
       </c>
@@ -8380,7 +8420,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>830</v>
       </c>
@@ -8403,7 +8443,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>832</v>
       </c>
@@ -8426,7 +8466,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>833</v>
       </c>
@@ -8449,7 +8489,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>835</v>
       </c>
@@ -8472,7 +8512,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>836</v>
       </c>
@@ -8495,7 +8535,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>838</v>
       </c>
@@ -8518,7 +8558,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>839</v>
       </c>
@@ -8541,7 +8581,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>841</v>
       </c>
@@ -8564,7 +8604,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>842</v>
       </c>
@@ -8587,7 +8627,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>844</v>
       </c>
@@ -8610,7 +8650,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="64" spans="1:14">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>845</v>
       </c>
@@ -8633,7 +8673,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="65" spans="1:14">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>847</v>
       </c>
@@ -8656,7 +8696,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="66" spans="1:14">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>848</v>
       </c>
@@ -8679,7 +8719,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="67" spans="1:14">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>850</v>
       </c>
@@ -8702,7 +8742,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="68" spans="1:14">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>851</v>
       </c>
@@ -8725,7 +8765,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>853</v>
       </c>
@@ -8748,7 +8788,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="70" spans="1:14">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>854</v>
       </c>
@@ -8771,7 +8811,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>856</v>
       </c>
@@ -8794,7 +8834,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="72" spans="1:14">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>857</v>
       </c>
@@ -8817,7 +8857,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="73" spans="1:14">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>859</v>
       </c>
@@ -8840,7 +8880,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="74" spans="1:14">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>860</v>
       </c>
@@ -8863,7 +8903,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="75" spans="1:14">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>862</v>
       </c>
@@ -8886,7 +8926,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="76" spans="1:14">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>863</v>
       </c>
@@ -8909,7 +8949,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="77" spans="1:14">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>865</v>
       </c>
@@ -8938,34 +8978,36 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="71.7109375" customWidth="1"/>
-    <col min="2" max="2" width="62.7109375" customWidth="1"/>
-    <col min="3" max="3" width="119.7109375" customWidth="1"/>
-    <col min="4" max="4" width="66.7109375" customWidth="1"/>
-    <col min="5" max="5" width="67.7109375" customWidth="1"/>
-    <col min="6" max="6" width="69.7109375" customWidth="1"/>
-    <col min="7" max="7" width="70.7109375" customWidth="1"/>
-    <col min="8" max="8" width="59.7109375" customWidth="1"/>
-    <col min="9" max="9" width="141.7109375" customWidth="1"/>
-    <col min="10" max="10" width="59.7109375" customWidth="1"/>
-    <col min="11" max="11" width="76.7109375" customWidth="1"/>
-    <col min="12" max="12" width="91.7109375" customWidth="1"/>
-    <col min="13" max="13" width="58.7109375" customWidth="1"/>
-    <col min="14" max="14" width="141.7109375" customWidth="1"/>
-    <col min="15" max="15" width="62.7109375" customWidth="1"/>
-    <col min="16" max="16" width="50.7109375" customWidth="1"/>
-    <col min="17" max="17" width="56.7109375" customWidth="1"/>
-    <col min="18" max="18" width="99.7109375" customWidth="1"/>
+    <col min="1" max="1" width="71.6640625" customWidth="1"/>
+    <col min="2" max="2" width="62.6640625" customWidth="1"/>
+    <col min="3" max="3" width="119.6640625" customWidth="1"/>
+    <col min="4" max="4" width="66.6640625" customWidth="1"/>
+    <col min="5" max="5" width="67.6640625" customWidth="1"/>
+    <col min="6" max="6" width="69.6640625" customWidth="1"/>
+    <col min="7" max="7" width="70.6640625" customWidth="1"/>
+    <col min="8" max="8" width="59.6640625" customWidth="1"/>
+    <col min="9" max="9" width="141.6640625" customWidth="1"/>
+    <col min="10" max="10" width="59.6640625" customWidth="1"/>
+    <col min="11" max="11" width="76.6640625" customWidth="1"/>
+    <col min="12" max="12" width="91.6640625" customWidth="1"/>
+    <col min="13" max="13" width="58.6640625" customWidth="1"/>
+    <col min="14" max="14" width="141.6640625" customWidth="1"/>
+    <col min="15" max="15" width="62.6640625" customWidth="1"/>
+    <col min="16" max="16" width="50.6640625" customWidth="1"/>
+    <col min="17" max="17" width="56.6640625" customWidth="1"/>
+    <col min="18" max="18" width="99.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>722</v>
       </c>
@@ -9021,7 +9063,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -9077,7 +9119,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>139</v>
       </c>
@@ -9127,7 +9169,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>753</v>
       </c>
@@ -9183,12 +9225,12 @@
         <v>911</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>758</v>
       </c>
@@ -9197,6 +9239,9 @@
       </c>
       <c r="G6" t="s">
         <v>913</v>
+      </c>
+      <c r="K6" t="s">
+        <v>1021</v>
       </c>
     </row>
   </sheetData>
@@ -9205,76 +9250,73 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:BH14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="80.7109375" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
-    <col min="3" max="3" width="78.7109375" customWidth="1"/>
-    <col min="4" max="4" width="54.7109375" customWidth="1"/>
-    <col min="5" max="5" width="61.7109375" customWidth="1"/>
-    <col min="6" max="6" width="62.7109375" customWidth="1"/>
-    <col min="7" max="7" width="176.7109375" customWidth="1"/>
-    <col min="8" max="8" width="171.7109375" customWidth="1"/>
-    <col min="9" max="9" width="134.7109375" customWidth="1"/>
-    <col min="10" max="10" width="62.7109375" customWidth="1"/>
-    <col min="11" max="11" width="58.7109375" customWidth="1"/>
-    <col min="12" max="12" width="141.7109375" customWidth="1"/>
-    <col min="13" max="13" width="69.7109375" customWidth="1"/>
-    <col min="14" max="14" width="58.7109375" customWidth="1"/>
-    <col min="15" max="15" width="141.7109375" customWidth="1"/>
-    <col min="16" max="16" width="96.7109375" customWidth="1"/>
-    <col min="17" max="17" width="58.7109375" customWidth="1"/>
-    <col min="18" max="18" width="141.7109375" customWidth="1"/>
-    <col min="19" max="19" width="81.7109375" customWidth="1"/>
-    <col min="20" max="20" width="58.7109375" customWidth="1"/>
-    <col min="21" max="21" width="141.7109375" customWidth="1"/>
-    <col min="22" max="22" width="57.7109375" customWidth="1"/>
-    <col min="23" max="23" width="76.7109375" customWidth="1"/>
-    <col min="24" max="24" width="80.7109375" customWidth="1"/>
-    <col min="25" max="25" width="62.7109375" customWidth="1"/>
-    <col min="26" max="26" width="121.7109375" customWidth="1"/>
-    <col min="27" max="27" width="97.7109375" customWidth="1"/>
-    <col min="28" max="28" width="86.7109375" customWidth="1"/>
-    <col min="29" max="29" width="99.7109375" customWidth="1"/>
-    <col min="30" max="30" width="101.7109375" customWidth="1"/>
-    <col min="31" max="31" width="69.7109375" customWidth="1"/>
-    <col min="32" max="32" width="69.7109375" customWidth="1"/>
-    <col min="33" max="33" width="71.7109375" customWidth="1"/>
-    <col min="34" max="34" width="141.7109375" customWidth="1"/>
-    <col min="35" max="35" width="158.7109375" customWidth="1"/>
-    <col min="36" max="36" width="136.7109375" customWidth="1"/>
-    <col min="37" max="37" width="90.7109375" customWidth="1"/>
-    <col min="38" max="38" width="57.7109375" customWidth="1"/>
-    <col min="39" max="39" width="55.7109375" customWidth="1"/>
-    <col min="40" max="40" width="53.7109375" customWidth="1"/>
-    <col min="41" max="41" width="111.7109375" customWidth="1"/>
-    <col min="42" max="42" width="91.7109375" customWidth="1"/>
-    <col min="43" max="43" width="72.7109375" customWidth="1"/>
-    <col min="44" max="44" width="71.7109375" customWidth="1"/>
-    <col min="45" max="45" width="32.7109375" customWidth="1"/>
-    <col min="46" max="46" width="67.7109375" customWidth="1"/>
-    <col min="47" max="47" width="41.7109375" customWidth="1"/>
-    <col min="48" max="48" width="84.7109375" customWidth="1"/>
-    <col min="49" max="49" width="104.7109375" customWidth="1"/>
-    <col min="50" max="50" width="104.7109375" customWidth="1"/>
-    <col min="51" max="51" width="104.7109375" customWidth="1"/>
-    <col min="52" max="52" width="88.7109375" customWidth="1"/>
-    <col min="53" max="53" width="69.7109375" customWidth="1"/>
-    <col min="54" max="54" width="58.7109375" customWidth="1"/>
-    <col min="55" max="55" width="141.7109375" customWidth="1"/>
-    <col min="56" max="56" width="67.7109375" customWidth="1"/>
-    <col min="57" max="57" width="58.7109375" customWidth="1"/>
-    <col min="58" max="58" width="141.7109375" customWidth="1"/>
-    <col min="59" max="59" width="79.7109375" customWidth="1"/>
-    <col min="60" max="60" width="175.7109375" customWidth="1"/>
+    <col min="1" max="1" width="80.6640625" customWidth="1"/>
+    <col min="2" max="2" width="71.6640625" customWidth="1"/>
+    <col min="3" max="3" width="78.6640625" customWidth="1"/>
+    <col min="4" max="4" width="54.6640625" customWidth="1"/>
+    <col min="5" max="5" width="61.6640625" customWidth="1"/>
+    <col min="6" max="6" width="62.6640625" customWidth="1"/>
+    <col min="7" max="7" width="176.6640625" customWidth="1"/>
+    <col min="8" max="8" width="171.6640625" customWidth="1"/>
+    <col min="9" max="9" width="134.6640625" customWidth="1"/>
+    <col min="10" max="10" width="62.6640625" customWidth="1"/>
+    <col min="11" max="11" width="58.6640625" customWidth="1"/>
+    <col min="12" max="12" width="141.6640625" customWidth="1"/>
+    <col min="13" max="13" width="69.6640625" customWidth="1"/>
+    <col min="14" max="14" width="58.6640625" customWidth="1"/>
+    <col min="15" max="15" width="141.6640625" customWidth="1"/>
+    <col min="16" max="16" width="96.6640625" customWidth="1"/>
+    <col min="17" max="17" width="58.6640625" customWidth="1"/>
+    <col min="18" max="18" width="141.6640625" customWidth="1"/>
+    <col min="19" max="19" width="81.6640625" customWidth="1"/>
+    <col min="20" max="20" width="58.6640625" customWidth="1"/>
+    <col min="21" max="21" width="141.6640625" customWidth="1"/>
+    <col min="22" max="22" width="57.6640625" customWidth="1"/>
+    <col min="23" max="23" width="76.6640625" customWidth="1"/>
+    <col min="24" max="24" width="80.6640625" customWidth="1"/>
+    <col min="25" max="25" width="62.6640625" customWidth="1"/>
+    <col min="26" max="26" width="121.6640625" customWidth="1"/>
+    <col min="27" max="27" width="97.6640625" customWidth="1"/>
+    <col min="28" max="28" width="86.6640625" customWidth="1"/>
+    <col min="29" max="29" width="99.6640625" customWidth="1"/>
+    <col min="30" max="30" width="101.6640625" customWidth="1"/>
+    <col min="31" max="32" width="69.6640625" customWidth="1"/>
+    <col min="33" max="33" width="71.6640625" customWidth="1"/>
+    <col min="34" max="34" width="141.6640625" customWidth="1"/>
+    <col min="35" max="35" width="158.6640625" customWidth="1"/>
+    <col min="36" max="36" width="136.6640625" customWidth="1"/>
+    <col min="37" max="37" width="90.6640625" customWidth="1"/>
+    <col min="38" max="38" width="57.6640625" customWidth="1"/>
+    <col min="39" max="39" width="55.6640625" customWidth="1"/>
+    <col min="40" max="40" width="53.6640625" customWidth="1"/>
+    <col min="41" max="41" width="111.6640625" customWidth="1"/>
+    <col min="42" max="42" width="91.6640625" customWidth="1"/>
+    <col min="43" max="43" width="72.6640625" customWidth="1"/>
+    <col min="44" max="44" width="71.6640625" customWidth="1"/>
+    <col min="45" max="45" width="32.6640625" customWidth="1"/>
+    <col min="46" max="46" width="67.6640625" customWidth="1"/>
+    <col min="47" max="47" width="41.6640625" customWidth="1"/>
+    <col min="48" max="48" width="84.6640625" customWidth="1"/>
+    <col min="49" max="51" width="104.6640625" customWidth="1"/>
+    <col min="52" max="52" width="88.6640625" customWidth="1"/>
+    <col min="53" max="53" width="69.6640625" customWidth="1"/>
+    <col min="54" max="54" width="58.6640625" customWidth="1"/>
+    <col min="55" max="55" width="141.6640625" customWidth="1"/>
+    <col min="56" max="56" width="67.6640625" customWidth="1"/>
+    <col min="57" max="57" width="58.6640625" customWidth="1"/>
+    <col min="58" max="58" width="141.6640625" customWidth="1"/>
+    <col min="59" max="59" width="79.6640625" customWidth="1"/>
+    <col min="60" max="60" width="175.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -9456,7 +9498,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:60">
+    <row r="2" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -9638,7 +9680,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:60">
+    <row r="3" spans="1:60" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>105</v>
       </c>
@@ -9799,7 +9841,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:60">
+    <row r="4" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>188</v>
       </c>
@@ -9981,12 +10023,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:60">
+    <row r="5" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:60">
+    <row r="6" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>213</v>
       </c>
@@ -10003,7 +10045,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="7" spans="1:60">
+    <row r="7" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>218</v>
       </c>
@@ -10020,7 +10062,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="8" spans="1:60">
+    <row r="8" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>222</v>
       </c>
@@ -10037,7 +10079,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="9" spans="1:60">
+    <row r="9" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>226</v>
       </c>
@@ -10054,7 +10096,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="10" spans="1:60">
+    <row r="10" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>230</v>
       </c>
@@ -10071,7 +10113,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="11" spans="1:60">
+    <row r="11" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>234</v>
       </c>
@@ -10088,7 +10130,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="12" spans="1:60">
+    <row r="12" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>238</v>
       </c>
@@ -10105,7 +10147,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="13" spans="1:60">
+    <row r="13" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>242</v>
       </c>
@@ -10122,7 +10164,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="14" spans="1:60">
+    <row r="14" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>246</v>
       </c>
